--- a/public/documents/locations.xlsx
+++ b/public/documents/locations.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andymswick/Documents/SGD Institute/2020/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/andymswick/Development/sgdinstitute/enterprise/public/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8B2057-BD39-A34C-A76B-BDA952DE41E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC867EFF-B295-9949-BE18-6223B2D40400}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1860" windowWidth="28040" windowHeight="17440" xr2:uid="{D92107B2-EBBB-6E49-9A59-7457866B4F3C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="27">
   <si>
     <t>Event</t>
   </si>
@@ -80,9 +80,6 @@
     <t>conference</t>
   </si>
   <si>
-    <t>plenery sessions</t>
-  </si>
-  <si>
     <t>Sangren Hall</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>hotel</t>
   </si>
   <si>
-    <t>SGRN</t>
-  </si>
-  <si>
     <t>Bernhard Center</t>
   </si>
   <si>
@@ -111,6 +105,15 @@
   </si>
   <si>
     <t>Radisson Plaza Hotel</t>
+  </si>
+  <si>
+    <t>SAN</t>
+  </si>
+  <si>
+    <t>BHC</t>
+  </si>
+  <si>
+    <t>keynote sessions</t>
   </si>
 </sst>
 </file>
@@ -479,7 +482,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -536,7 +539,7 @@
         <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="K2">
         <v>42.279268999999999</v>
@@ -550,16 +553,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K3">
         <v>42.284182000000001</v>
@@ -573,13 +576,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K4">
         <v>42.285060000000001</v>
@@ -593,10 +599,10 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5">
         <v>42.264215999999998</v>
@@ -610,10 +616,10 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6">
         <v>42.300190000000001</v>
@@ -627,10 +633,10 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7">
         <v>42.301229999999997</v>
@@ -644,10 +650,10 @@
         <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8">
         <v>42.292172000000001</v>
